--- a/public/template/template peraturan.xlsx
+++ b/public/template/template peraturan.xlsx
@@ -1,42 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sesendokneo/public/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859466D3-C766-F143-BF0D-6C7EA57D791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="peraturan" sheetId="1" r:id="rId4"/>
+    <sheet name="peraturan" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alwi Mansyur</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Alwi Mansyur:
-peraturan_undang_undang_pusat
-peraturan_menteri_lembaga
-peraturan_daerah
-pengumuman
-artikel
-lain
-kegiatan
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peraturan_undang_undang_pusat
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peraturan_menteri_lembaga
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peraturan_daerah
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">pengumuman
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">artikel
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">lain
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">kegiatan
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Type Dok</t>
   </si>
@@ -110,29 +183,59 @@
   </si>
   <si>
     <t>Umum</t>
+  </si>
+  <si>
+    <t>NOMOR 16 TAHUN 2018</t>
+  </si>
+  <si>
+    <t>PENGADAAN BARANG/JASA PEMERINTAH</t>
+  </si>
+  <si>
+    <t>perpres</t>
+  </si>
+  <si>
+    <t>PERATURAN PRESIDEN REPUBLIK INDONESIA NOMOR 16 TAHUN 2018 TENTANG PENGADAAN BARANG/JASA PEMERINTAH</t>
+  </si>
+  <si>
+    <t>peraturan_undang_undang_pusat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERATURAN PRESIDEN REPUBLIK INDONESIA </t>
+  </si>
+  <si>
+    <t>NOMOR 12 TAHUN 2021</t>
+  </si>
+  <si>
+    <t>PERUBAHAN ATAS PERATURAN PRESIDEN NOMOR 16 TAHUN 2018 TENTANG PENGADAAN BARANG/JASA PEMERINTAH</t>
+  </si>
+  <si>
+    <t>PERATURAN PRESIDEN REPUBLIK INDONESIA NOMOR 12 TAHUN 2021 TENTANG PERUBAHAN ATAS PERATURAN PRESIDEN NOMOR 16 TAHUN 2018 TENTANG PENGADAAN BARANG/JASA PEMERINTAH</t>
+  </si>
+  <si>
+    <t>HASIL VERIFIKASI, VALIDASI DAN INVENTARISASI PEMUTAKHIRAN KLASIFIKASI, KODEFIKASI DAN NOMENKLATUR PERENCANAAN PEMBANGUNAN DAN KEUANGAN DAERAH</t>
+  </si>
+  <si>
+    <t>050-5889 TAHUN 2021</t>
+  </si>
+  <si>
+    <t>KEPUTUSAN MENTERI DALAM NEGERI Nomor 050-5889 TAHUN 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d mmmm yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
@@ -146,6 +249,18 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,39 +386,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,32 +435,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FFD6D6D6"/>
+      <rgbColor rgb="FF89847F"/>
+      <rgbColor rgb="FFA6A29F"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -538,7 +712,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -556,7 +730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +759,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,7 +784,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +809,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -660,7 +834,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +859,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +884,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -735,7 +909,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +959,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,9 +972,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -817,7 +997,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -835,7 +1015,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +1040,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +1065,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +1090,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +1115,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +1140,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1165,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1190,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +1215,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,9 +1253,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1089,7 +1275,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1107,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1322,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1347,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1372,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1397,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1422,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1447,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1472,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1497,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1522,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,106 +1535,211 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.9219" style="1" customWidth="1"/>
-    <col min="3" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="1" customWidth="1"/>
+    <col min="3" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="68.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>43175</v>
+      </c>
+      <c r="H2" s="8">
+        <v>43181</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8">
+        <v>44229</v>
+      </c>
+      <c r="H3" s="8">
+        <v>44229</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>44557</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44557</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G5" s="8">
         <v>45100</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H5" s="8">
         <v>45100</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="9">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>